--- a/0_github项目总结及其常用备用软件介绍.xlsx
+++ b/0_github项目总结及其常用备用软件介绍.xlsx
@@ -431,10 +431,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -462,15 +462,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,13 +524,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,20 +543,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -530,45 +552,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,7 +576,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,187 +610,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,76 +804,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,8 +831,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,10 +909,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,16 +921,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,112 +942,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1757,7 +1757,7 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2093,7 +2093,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -2125,7 +2125,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" ht="133" customHeight="1" spans="1:3">
+    <row r="3" ht="102" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>122</v>
       </c>

--- a/0_github项目总结及其常用备用软件介绍.xlsx
+++ b/0_github项目总结及其常用备用软件介绍.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1,自己建立的Normal_repositories" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="129">
   <si>
     <t>Project</t>
   </si>
@@ -199,9 +199,6 @@
     <t>时间日期选择控件</t>
   </si>
   <si>
-    <t>线程的知识</t>
-  </si>
-  <si>
     <t>Phoenix</t>
   </si>
   <si>
@@ -396,6 +393,15 @@
   </si>
   <si>
     <t>android上边最好最火的Android图标开源项目</t>
+  </si>
+  <si>
+    <t>BluetoothHelper</t>
+  </si>
+  <si>
+    <t>https://github.com/a-voyager/BluetoothHelper</t>
+  </si>
+  <si>
+    <t>蓝牙所有的操作的开发库</t>
   </si>
   <si>
     <t>Summary</t>
@@ -432,9 +438,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -462,25 +468,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,42 +478,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,10 +498,55 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -562,6 +561,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,6 +616,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -622,175 +760,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +814,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,15 +858,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -848,21 +869,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,10 +915,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,16 +927,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,52 +948,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -996,62 +1002,62 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1066,6 +1072,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1436,12 +1445,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="35" customHeight="1" outlineLevelCol="2"/>
@@ -1629,7 +1638,7 @@
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1675,71 +1684,63 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>12</v>
+    <row r="32" customHeight="1" spans="1:3">
+      <c r="A32" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="9" t="s">
         <v>54</v>
       </c>
+      <c r="C32" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:2">
+      <c r="A33" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="B33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="9" t="s">
-        <v>57</v>
+      <c r="A34" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="10" t="s">
-        <v>59</v>
+      <c r="A35" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" s="11" t="s">
-        <v>61</v>
+      <c r="A36" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:2">
-      <c r="A39" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1772,16 +1773,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
@@ -1789,24 +1790,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
         <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
@@ -1814,13 +1815,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
         <v>78</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -1828,10 +1829,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
@@ -1839,13 +1840,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -1853,13 +1854,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
         <v>86</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
@@ -1867,13 +1868,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" ht="29" customHeight="1" spans="1:4">
@@ -1881,13 +1882,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
         <v>92</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>93</v>
-      </c>
-      <c r="D9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -1895,10 +1896,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
         <v>95</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
@@ -1906,10 +1907,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
         <v>97</v>
-      </c>
-      <c r="C11" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
@@ -1917,10 +1918,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
         <v>99</v>
-      </c>
-      <c r="C12" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -1928,10 +1929,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
         <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:4">
@@ -1939,13 +1940,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -1953,10 +1954,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
@@ -2007,15 +2008,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="29.375" customWidth="1"/>
     <col min="2" max="2" width="50.375" customWidth="1"/>
@@ -2025,41 +2026,41 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" ht="22" customHeight="1" spans="1:4">
       <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" t="s">
         <v>111</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" ht="31" customHeight="1" spans="1:3">
       <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -2067,10 +2068,21 @@
         <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
         <v>117</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="6" t="s">
         <v>118</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2078,6 +2090,7 @@
     <hyperlink ref="B2" r:id="rId1" display="https://github.com/open-android/Android"/>
     <hyperlink ref="B3" r:id="rId2" display="https://github.com/109021017/android-TopActivity" tooltip="https://github.com/109021017/android-TopActivity"/>
     <hyperlink ref="B4" r:id="rId3" display="https://github.com/PhilJay/MPAndroidChart"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://github.com/a-voyager/BluetoothHelper"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2116,32 +2129,32 @@
     </row>
     <row r="2" ht="49" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/0_github项目总结及其常用备用软件介绍.xlsx
+++ b/0_github项目总结及其常用备用软件介绍.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="23325" windowHeight="9840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1,自己建立的Normal_repositories" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="134">
   <si>
     <t>Project</t>
   </si>
@@ -180,13 +180,6 @@
     <t>https://poi.apache.org/download.html</t>
   </si>
   <si>
-    <t>SignalTest</t>
-  </si>
-  <si>
-    <t>基站4G信号测试,绘制最近一分钟的折线图,并且可选
-择时间的导出为Excel文档</t>
-  </si>
-  <si>
     <t>OneKeyLockScreen</t>
   </si>
   <si>
@@ -404,7 +397,16 @@
     <t>蓝牙所有的操作的开发库</t>
   </si>
   <si>
+    <t>private/Publick</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
     <t>Summary</t>
+  </si>
+  <si>
+    <t>private</t>
   </si>
   <si>
     <t>学习阶段的总结文档,恐防不测所以在此备份</t>
@@ -430,6 +432,20 @@
   </si>
   <si>
     <t>私活,极光改造的即时通讯软件</t>
+  </si>
+  <si>
+    <t>SignalTest</t>
+  </si>
+  <si>
+    <t>https://github.com/zzggxx/SignalTest</t>
+  </si>
+  <si>
+    <t>基站4G信号测试,绘制最近一分钟的折线图,并且可选
+择时间的导出为Excel文档</t>
+  </si>
+  <si>
+    <t>1,基于常规api考虑,非系统api设计
+2,Android中Excel文档的制作方法</t>
   </si>
 </sst>
 </file>
@@ -437,10 +453,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -468,14 +484,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,24 +529,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,20 +546,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,22 +561,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,14 +605,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,187 +632,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,11 +826,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,6 +866,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -858,36 +915,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -896,17 +923,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -915,10 +931,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,16 +943,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -948,118 +964,121 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1448,16 +1467,16 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="35" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="25.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="78.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="52.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="78.375" style="3" customWidth="1"/>
     <col min="4" max="31" width="9" style="1"/>
     <col min="32" max="16384" width="9.00833333333333" style="1"/>
   </cols>
@@ -1474,273 +1493,268 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="100" customHeight="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="1" customHeight="1"/>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" ht="75" customHeight="1" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" ht="131" customHeight="1" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" ht="61" customHeight="1" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="1" customHeight="1"/>
-    <row r="23" ht="42" customHeight="1" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="3"/>
+    <row r="23" ht="42" customHeight="1" spans="2:3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" customHeight="1" spans="3:3">
-      <c r="C24" s="3"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" customHeight="1" spans="3:3">
-      <c r="C25" s="3"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="3:3">
-      <c r="C26" s="3"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" customHeight="1" spans="3:3">
-      <c r="C27" s="3"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" customHeight="1" spans="3:3">
-      <c r="C28" s="3"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" customFormat="1" customHeight="1"/>
     <row r="30" customHeight="1" spans="1:2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:2">
+      <c r="A31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:2">
-      <c r="A31" s="2" t="s">
+    <row r="32" customHeight="1" spans="1:3">
+      <c r="A32" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="10" t="s">
+      <c r="C32" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="2" t="s">
+    </row>
+    <row r="33" customHeight="1" spans="1:2">
+      <c r="A33" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="10" t="s">
+    <row r="34" customHeight="1" spans="1:2">
+      <c r="A34" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="11" t="s">
+    <row r="35" customHeight="1" spans="1:2">
+      <c r="A35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="12" t="s">
+    <row r="36" customHeight="1" spans="1:2">
+      <c r="A36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" s="2" t="s">
+    <row r="37" customHeight="1" spans="1:2">
+      <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:2">
-      <c r="A37" s="2" t="s">
+    <row r="38" customHeight="1" spans="1:2">
+      <c r="A38" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1773,16 +1787,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
@@ -1790,24 +1804,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>75</v>
+      <c r="B3" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
@@ -1815,13 +1829,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
         <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -1829,10 +1843,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
@@ -1840,13 +1854,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
         <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -1854,13 +1868,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
         <v>85</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
@@ -1868,13 +1882,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
         <v>88</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" ht="29" customHeight="1" spans="1:4">
@@ -1882,13 +1896,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
         <v>91</v>
-      </c>
-      <c r="C9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -1896,10 +1910,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
@@ -1907,10 +1921,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
@@ -1918,10 +1932,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -1929,10 +1943,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:4">
@@ -1940,13 +1954,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="C14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -1954,10 +1968,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
@@ -2010,10 +2024,10 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -2026,63 +2040,63 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" ht="22" customHeight="1" spans="1:4">
       <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" ht="31" customHeight="1" spans="1:3">
       <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="C5" t="s">
         <v>118</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2101,63 +2115,103 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.125" customWidth="1"/>
-    <col min="2" max="2" width="46.25" customWidth="1"/>
-    <col min="3" max="3" width="48.25" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.375" customWidth="1"/>
+    <col min="4" max="4" width="46.25" customWidth="1"/>
+    <col min="5" max="5" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="35" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="49" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="49" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" ht="102" customHeight="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="3" ht="102" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" ht="35" customHeight="1" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="4" ht="35" customHeight="1" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" ht="45" customHeight="1" spans="1:5">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="https://github.com/zzggxx/SignalTest"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/0_github项目总结及其常用备用软件介绍.xlsx
+++ b/0_github项目总结及其常用备用软件介绍.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="135">
   <si>
     <t>Project</t>
   </si>
@@ -447,16 +447,19 @@
     <t>1,基于常规api考虑,非系统api设计
 2,Android中Excel文档的制作方法</t>
   </si>
+  <si>
+    <t>系统升级app,包含有多线程现在断点续传等</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -492,22 +495,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,19 +531,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -575,39 +598,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -632,6 +635,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -662,19 +779,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,115 +815,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,6 +826,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -846,6 +873,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,50 +926,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -931,10 +934,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -946,13 +949,13 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,116 +967,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1081,9 +1084,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1091,9 +1091,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1474,9 +1471,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="35" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="25.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="52.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="78.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="78.375" style="2" customWidth="1"/>
     <col min="4" max="31" width="9" style="1"/>
     <col min="32" max="16384" width="9.00833333333333" style="1"/>
   </cols>
@@ -1493,267 +1490,267 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="100" customHeight="1" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="1" customHeight="1"/>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" ht="75" customHeight="1" spans="1:3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" ht="131" customHeight="1" spans="1:3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" ht="61" customHeight="1" spans="1:3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="1" customHeight="1"/>
     <row r="23" ht="42" customHeight="1" spans="2:3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" customHeight="1" spans="3:3">
-      <c r="C24" s="4"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" customHeight="1" spans="3:3">
-      <c r="C25" s="4"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" customHeight="1" spans="3:3">
-      <c r="C26" s="4"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" customHeight="1" spans="3:3">
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" customHeight="1" spans="3:3">
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" customFormat="1" customHeight="1"/>
     <row r="30" customHeight="1" spans="1:2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1809,7 +1806,7 @@
       <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1817,7 +1814,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C3" t="s">
@@ -1959,7 +1956,7 @@
       <c r="C14" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2056,7 +2053,7 @@
       <c r="A2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C2" t="s">
@@ -2070,10 +2067,10 @@
       <c r="A3" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2081,7 +2078,7 @@
       <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C4" t="s">
@@ -2089,10 +2086,10 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C5" t="s">
@@ -2115,18 +2112,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.125" customWidth="1"/>
-    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="38.375" customWidth="1"/>
     <col min="4" max="4" width="46.25" customWidth="1"/>
     <col min="5" max="5" width="48.25" customWidth="1"/>
@@ -2150,44 +2147,44 @@
       </c>
     </row>
     <row r="2" ht="49" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2195,17 +2192,28 @@
       <c r="A5" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:4">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/0_github项目总结及其常用备用软件介绍.xlsx
+++ b/0_github项目总结及其常用备用软件介绍.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="133">
   <si>
     <t>Project</t>
   </si>
@@ -397,16 +397,7 @@
     <t>蓝牙所有的操作的开发库</t>
   </si>
   <si>
-    <t>private/Publick</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>Summary</t>
-  </si>
-  <si>
-    <t>private</t>
   </si>
   <si>
     <t>学习阶段的总结文档,恐防不测所以在此备份</t>
@@ -437,9 +428,6 @@
     <t>SignalTest</t>
   </si>
   <si>
-    <t>https://github.com/zzggxx/SignalTest</t>
-  </si>
-  <si>
     <t>基站4G信号测试,绘制最近一分钟的折线图,并且可选
 择时间的导出为Excel文档</t>
   </si>
@@ -449,6 +437,12 @@
   </si>
   <si>
     <t>系统升级app,包含有多线程现在断点续传等</t>
+  </si>
+  <si>
+    <t>SystemClone</t>
+  </si>
+  <si>
+    <t>系统克隆,主要是apk的数据迁移</t>
   </si>
 </sst>
 </file>
@@ -456,10 +450,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -487,6 +481,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -495,7 +496,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,61 +540,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -598,19 +572,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -635,187 +629,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,30 +820,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -873,26 +843,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,6 +876,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -934,10 +928,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -946,16 +940,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,112 +961,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,11 +1083,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
@@ -1956,7 +1950,7 @@
       <c r="C14" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2053,7 +2047,7 @@
       <c r="A2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C2" t="s">
@@ -2067,10 +2061,10 @@
       <c r="A3" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2078,7 +2072,7 @@
       <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C4" t="s">
@@ -2086,10 +2080,10 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C5" t="s">
@@ -2112,114 +2106,90 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="25.125" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.375" customWidth="1"/>
-    <col min="4" max="4" width="46.25" customWidth="1"/>
-    <col min="5" max="5" width="48.25" customWidth="1"/>
+    <col min="2" max="2" width="46.25" customWidth="1"/>
+    <col min="3" max="3" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="35" customHeight="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="49" customHeight="1" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" ht="49" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" ht="102" customHeight="1" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" ht="102" customHeight="1" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="4" ht="35" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="5" ht="45" customHeight="1" spans="1:3">
+      <c r="A5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" ht="35" customHeight="1" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" ht="45" customHeight="1" spans="1:5">
-      <c r="A5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" ht="27" customHeight="1" spans="1:4">
+    <row r="6" ht="27" customHeight="1" spans="1:2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>134</v>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" ht="29" customHeight="1" spans="1:2">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://github.com/zzggxx/SignalTest"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/0_github项目总结及其常用备用软件介绍.xlsx
+++ b/0_github项目总结及其常用备用软件介绍.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="134">
   <si>
     <t>Project</t>
   </si>
@@ -444,16 +444,19 @@
   <si>
     <t>系统克隆,主要是apk的数据迁移</t>
   </si>
+  <si>
+    <t>1,文件的解压缩</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -481,9 +484,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -494,32 +505,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,16 +534,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,6 +544,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -565,22 +567,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,8 +582,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,6 +596,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -629,187 +632,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,41 +826,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,6 +852,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,16 +886,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -928,10 +931,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -940,16 +943,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -961,116 +964,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,6 +1085,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1648,7 +1654,7 @@
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1690,7 +1696,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1701,7 +1707,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1709,7 +1715,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1717,7 +1723,7 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1800,7 +1806,7 @@
       <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1808,7 +1814,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C3" t="s">
@@ -2047,7 +2053,7 @@
       <c r="A2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C2" t="s">
@@ -2061,7 +2067,7 @@
       <c r="A3" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2072,7 +2078,7 @@
       <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C4" t="s">
@@ -2083,7 +2089,7 @@
       <c r="A5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C5" t="s">
@@ -2111,7 +2117,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -2173,7 +2179,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:2">
+    <row r="6" ht="34" customHeight="1" spans="1:2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -2181,12 +2187,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" ht="29" customHeight="1" spans="1:2">
+    <row r="7" ht="58" customHeight="1" spans="1:3">
       <c r="A7" t="s">
         <v>131</v>
       </c>
       <c r="B7" t="s">
         <v>132</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/0_github项目总结及其常用备用软件介绍.xlsx
+++ b/0_github项目总结及其常用备用软件介绍.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840" activeTab="3"/>
+    <workbookView windowWidth="23325" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="1,自己建立的Normal_repositories" sheetId="1" r:id="rId1"/>
@@ -453,10 +453,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -484,14 +484,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -499,28 +507,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,9 +529,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,14 +553,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -567,24 +568,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,8 +603,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,181 +638,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,17 +826,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,15 +876,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,31 +901,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,10 +931,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,16 +943,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,116 +964,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,9 +1085,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1463,10 +1460,10 @@
   <sheetPr/>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="35" customHeight="1" outlineLevelCol="2"/>
@@ -1654,7 +1651,7 @@
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1696,7 +1693,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1707,7 +1704,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1715,7 +1712,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1723,7 +1720,7 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1806,7 +1803,7 @@
       <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1814,7 +1811,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C3" t="s">
@@ -2053,7 +2050,7 @@
       <c r="A2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C2" t="s">
@@ -2067,7 +2064,7 @@
       <c r="A3" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>112</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2078,7 +2075,7 @@
       <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C4" t="s">
@@ -2089,7 +2086,7 @@
       <c r="A5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C5" t="s">
@@ -2114,10 +2111,10 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -2194,7 +2191,7 @@
       <c r="B7" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>133</v>
       </c>
     </row>

--- a/0_github项目总结及其常用备用软件介绍.xlsx
+++ b/0_github项目总结及其常用备用软件介绍.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="137">
   <si>
     <t>Project</t>
   </si>
@@ -180,6 +180,16 @@
     <t>https://poi.apache.org/download.html</t>
   </si>
   <si>
+    <t>007_DialogAndDialogFragment</t>
+  </si>
+  <si>
+    <t>dialog和DialogFragment</t>
+  </si>
+  <si>
+    <t>1,dialog知识:动画,是否全屏,设置参数(灰度等)等.
+2,DialogFragment优点就是就是不重新创建,介绍了全部使用方法</t>
+  </si>
+  <si>
     <t>OneKeyLockScreen</t>
   </si>
   <si>
@@ -453,10 +463,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -484,7 +494,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,29 +545,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -529,15 +552,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,17 +568,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,32 +605,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -632,187 +642,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,6 +833,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -843,8 +892,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -865,27 +916,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -899,30 +933,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -931,10 +941,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,133 +953,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1458,17 +1468,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="35" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="25.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="52.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="78.375" style="2" customWidth="1"/>
     <col min="4" max="31" width="9" style="1"/>
@@ -1538,7 +1548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:2">
+    <row r="7" ht="32" customHeight="1" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1551,113 +1561,128 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="1" customHeight="1"/>
-    <row r="10" customHeight="1" spans="1:3">
+    <row r="9" customHeight="1" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:2">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="66" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" ht="66" customHeight="1" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="48" customHeight="1" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" ht="111" customHeight="1" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" ht="75" customHeight="1" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" ht="52" customHeight="1" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" ht="131" customHeight="1" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" ht="61" customHeight="1" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" customFormat="1" customHeight="1"/>
-    <row r="23" ht="42" customHeight="1" spans="2:3">
-      <c r="B23" s="3"/>
+    <row r="20" customFormat="1" ht="41" customHeight="1" spans="1:3">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" ht="42" customHeight="1" spans="2:3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" customHeight="1" spans="3:3">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" customHeight="1" spans="3:3">
       <c r="C23" s="3"/>
     </row>
     <row r="24" customHeight="1" spans="3:3">
@@ -1669,91 +1694,85 @@
     <row r="26" customHeight="1" spans="3:3">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" customHeight="1" spans="3:3">
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" customHeight="1" spans="3:3">
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" customFormat="1" customHeight="1"/>
-    <row r="30" customHeight="1" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>47</v>
+    <row r="27" customFormat="1" customHeight="1"/>
+    <row r="28" customHeight="1" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:3">
+      <c r="A30" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>49</v>
+      <c r="A31" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="9" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:2">
+      <c r="A32" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="9" t="s">
-        <v>54</v>
+      <c r="A33" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="10" t="s">
-        <v>56</v>
+      <c r="A34" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="11" t="s">
-        <v>58</v>
+      <c r="A35" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1" display="https://poi.apache.org/download.html" tooltip="https://poi.apache.org/download.html"/>
+    <hyperlink ref="C19" r:id="rId1" display="https://poi.apache.org/download.html" tooltip="https://poi.apache.org/download.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1781,16 +1800,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
@@ -1798,13 +1817,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
@@ -1812,10 +1831,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
@@ -1823,13 +1842,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -1837,10 +1856,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
@@ -1848,13 +1867,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -1862,13 +1881,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
@@ -1876,13 +1895,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" ht="29" customHeight="1" spans="1:4">
@@ -1890,13 +1909,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -1904,10 +1923,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
@@ -1915,10 +1934,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
@@ -1926,10 +1945,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -1937,10 +1956,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:4">
@@ -1948,13 +1967,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -1962,10 +1981,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
@@ -2034,41 +2053,41 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" ht="22" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="31" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
@@ -2076,21 +2095,21 @@
         <v>42</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2114,7 +2133,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -2137,43 +2156,43 @@
     </row>
     <row r="2" ht="49" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" ht="45" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" ht="34" customHeight="1" spans="1:2">
@@ -2181,18 +2200,18 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/0_github项目总结及其常用备用软件介绍.xlsx
+++ b/0_github项目总结及其常用备用软件介绍.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840"/>
+    <workbookView windowWidth="23325" windowHeight="9840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1,自己建立的Normal_repositories" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="140">
   <si>
     <t>Project</t>
   </si>
@@ -388,14 +388,13 @@
     <t>https://github.com/109021017/android-TopActivity</t>
   </si>
   <si>
-    <t>A useful tool for Android Developers, which shows the package name 
-and class name of current activity</t>
+    <t>新项目有用,快速精准的定位,可以看到当前展示界面的包名和名称</t>
   </si>
   <si>
     <t>https://github.com/PhilJay/MPAndroidChart</t>
   </si>
   <si>
-    <t>android上边最好最火的Android图标开源项目</t>
+    <t>android上边最好最火的Android图表开源项目,有折线图,圆形图等</t>
   </si>
   <si>
     <t>BluetoothHelper</t>
@@ -405,6 +404,18 @@
   </si>
   <si>
     <t>蓝牙所有的操作的开发库</t>
+  </si>
+  <si>
+    <t>Stetho</t>
+  </si>
+  <si>
+    <t>https://github.com/facebook/stetho.git</t>
+  </si>
+  <si>
+    <t>android开发良好的测试工具:
+1,数据库实时查看和调试,sp文件
+2,布局视图查看
+3,网络请求抓包</t>
   </si>
   <si>
     <t>Summary</t>
@@ -463,10 +474,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -494,43 +505,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,6 +520,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -552,9 +550,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,23 +572,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,19 +603,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -642,187 +653,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,45 +844,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -892,10 +864,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -916,10 +886,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -933,6 +920,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -941,10 +952,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,16 +964,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,116 +985,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1104,6 +1115,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1470,10 +1484,10 @@
   <sheetPr/>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="35" customHeight="1" outlineLevelCol="2"/>
@@ -1660,7 +1674,7 @@
       <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1712,7 +1726,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1723,7 +1737,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1731,7 +1745,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1739,7 +1753,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1830,7 +1844,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" t="s">
@@ -2035,15 +2049,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="29.375" customWidth="1"/>
     <col min="2" max="2" width="50.375" customWidth="1"/>
@@ -2065,7 +2079,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" ht="22" customHeight="1" spans="1:4">
+    <row r="2" ht="36" customHeight="1" spans="1:4">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -2079,18 +2093,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" ht="31" customHeight="1" spans="1:3">
+    <row r="3" ht="45" customHeight="1" spans="1:3">
       <c r="A3" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:3">
+    <row r="4" ht="31" customHeight="1" spans="1:3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2110,6 +2124,17 @@
       </c>
       <c r="C5" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="6" ht="71" customHeight="1" spans="1:3">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2118,6 +2143,7 @@
     <hyperlink ref="B3" r:id="rId2" display="https://github.com/109021017/android-TopActivity" tooltip="https://github.com/109021017/android-TopActivity"/>
     <hyperlink ref="B4" r:id="rId3" display="https://github.com/PhilJay/MPAndroidChart"/>
     <hyperlink ref="B5" r:id="rId4" display="https://github.com/a-voyager/BluetoothHelper"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://github.com/facebook/stetho.git"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2156,43 +2182,43 @@
     </row>
     <row r="2" ht="49" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" ht="45" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" ht="34" customHeight="1" spans="1:2">
@@ -2200,18 +2226,18 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
